--- a/【AUO線上新人包系列】精準簡報技巧_行前作業.xlsx
+++ b/【AUO線上新人包系列】精準簡報技巧_行前作業.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="作業主題Spec" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <r>
       <t xml:space="preserve">AUO </t>
@@ -140,7 +141,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>新冠肺炎傳染力有多強</t>
+      <t>面板業拚轉型！友達射</t>
     </r>
     <r>
       <rPr>
@@ -150,7 +151,7 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -161,11 +162,18 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>醫生引用負壓病房格局圖揭主因</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>箭</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="10"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -175,7 +183,21 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>面板業拚轉型！友達射</t>
+      <t>攻「場域經濟」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>友達組戰隊</t>
     </r>
     <r>
       <rPr>
@@ -185,7 +207,7 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>3</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -196,7 +218,385 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>箭</t>
+      <t>強攻場域經濟</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新冠肺炎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作業
+題型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作業</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPEC</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請選擇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>篇您有興趣的新聞，根據影片所學，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>製作</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>2-3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頁投影片重點摘要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>(16:9)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成後</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上傳至</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>方能完成作業。
+◎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請將作業</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>列印</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>A4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紙本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張投影片)，帶至</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>AEC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活動現場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eEA_ac84jhk</t>
+  </si>
+  <si>
+    <t>陽性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新冠肺炎傳染力有多強</t>
     </r>
     <r>
       <rPr>
@@ -217,400 +617,9 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>攻「場域經濟」</t>
+      <t>醫生引用負壓病房格局圖揭主因</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color theme="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>友達組戰隊</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color theme="10"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color theme="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強攻場域經濟</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新冠肺炎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>作業
-題型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>作業</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>SPEC</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請選擇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>篇您有興趣的新聞，根據影片所學，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>製作</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>2-3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>頁投影片重點摘要</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>(16:9)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>完成後</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上傳至</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>ALS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>方能完成作業。
-◎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請將作業</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>列印</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>A4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紙本</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>頁</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張投影片)，帶至</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>AEC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>活動現場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eEA_ac84jhk</t>
   </si>
 </sst>
 </file>
@@ -818,6 +827,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -832,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,6 +861,3543 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>病房內</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>陽性</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>陰性</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>浴室</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$J$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>陽性</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>陰性</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>醫護人員防護裝備</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$P$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>陽性</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>陰性</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$P$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>病房內</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>陽性</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>陰性</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$21:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,8 +4689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1158,27 +4704,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1186,56 +4732,56 @@
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1256,4 +4802,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>